--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/10/seed2/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.724200000000007</v>
+        <v>6.989900000000006</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.5299</v>
+        <v>-8.576499999999999</v>
       </c>
     </row>
     <row r="19">
@@ -726,7 +726,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.080099999999998</v>
+        <v>8.883800000000001</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.085199999999995</v>
+        <v>9.214499999999997</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.1927</v>
+        <v>-13.33879999999999</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -782,7 +782,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.808199999999999</v>
+        <v>5.817200000000001</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.12649999999999</v>
+        <v>-13.41009999999999</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.18320000000001</v>
+        <v>-11.75010000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.94289999999999</v>
+        <v>-14.01329999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.38329999999999</v>
+        <v>-11.2821</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-14.01299999999999</v>
+        <v>-13.8087</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.357900000000001</v>
+        <v>-8.3522</v>
       </c>
     </row>
     <row r="52">
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.959</v>
+        <v>-10.79059999999999</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1174,10 +1174,10 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>6.510599999999996</v>
+        <v>6.414999999999996</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.87650000000001</v>
+        <v>-10.67410000000001</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.4005</v>
+        <v>-13.50390000000001</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.6295</v>
+        <v>-8.6159</v>
       </c>
     </row>
     <row r="56">
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.662599999999994</v>
+        <v>4.828699999999998</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.833999999999998</v>
+        <v>5.041599999999999</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.758699999999992</v>
+        <v>-7.840199999999989</v>
       </c>
     </row>
     <row r="65">
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.771499999999994</v>
+        <v>5.732199999999994</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1415,7 +1415,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.6929</v>
+        <v>-11.5357</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.313200000000004</v>
+        <v>9.314700000000004</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.941499999999995</v>
+        <v>-8.100099999999999</v>
       </c>
     </row>
     <row r="81">
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>6.1084</v>
+        <v>5.182099999999999</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-14.26099999999999</v>
+        <v>-13.84169999999999</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1653,7 +1653,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-12.9665</v>
+        <v>-13.351</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1726,7 +1726,7 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.0618</v>
+        <v>-6.989900000000005</v>
       </c>
     </row>
     <row r="93">
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.670699999999998</v>
+        <v>5.776899999999999</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.036500000000006</v>
+        <v>-6.231800000000003</v>
       </c>
     </row>
     <row r="95">
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.683999999999999</v>
+        <v>-8.598999999999998</v>
       </c>
     </row>
     <row r="97">
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.0276</v>
+        <v>-12.89970000000001</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
